--- a/biology/Médecine/Glossaire_de_la_médecine/Glossaire_de_la_médecine.xlsx
+++ b/biology/Médecine/Glossaire_de_la_médecine/Glossaire_de_la_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glossaire de termes relatifs à la médecine.
 Sommaire :
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acarbose
 Achromatopsie
@@ -588,7 +602,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -606,7 +620,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bacille
 Bactérie
@@ -628,7 +644,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -646,7 +662,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Calcul rénal
 Cancer
@@ -683,7 +701,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -701,7 +719,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dengue
 Dépression
@@ -728,7 +748,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -746,7 +766,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ebola
 Échelle de Glasgow
@@ -769,7 +791,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -787,7 +809,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Fausse couche spontanée
 Fibromyalgie
@@ -803,7 +827,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -821,7 +845,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Gale
 Gastro-entérite
@@ -844,7 +870,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -862,7 +888,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Hémianopsie :
 Hémo- : Préfixe signifiant sang
@@ -908,7 +936,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -926,7 +954,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ictère (ou jaunisse)
 Ictus amnésique (ou amnésie temporaire)
@@ -951,7 +981,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -969,7 +999,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jaquette
 Jugulaire externe
@@ -983,7 +1015,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1001,7 +1033,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Kaposi (sarcome de)
 Karman, Méthode de
@@ -1021,7 +1055,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1039,7 +1073,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Laryngectomie
 Légionellose
@@ -1058,7 +1094,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1076,7 +1112,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Macrocyte : Érythrocyte (globule rouge) de grande taille
 Macroglossie
@@ -1196,7 +1234,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1214,7 +1252,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Naboth, Œuf de
 Néphrologie
@@ -1230,7 +1270,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1248,7 +1288,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Obstétrique : Partie de la médecine en rapport avec la grossesse et l'accouchement
 Obstétricien : Médecin spécialiste de l'obstétrique
@@ -1347,7 +1389,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1365,7 +1407,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Péritonite
 Pleurésie
@@ -1386,7 +1430,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1404,7 +1448,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Quadriceps crural
 Queue-de-cheval
@@ -1418,7 +1464,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1436,7 +1482,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Rachis
 Raynaud, Maladie de
@@ -1450,7 +1498,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1468,7 +1516,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Sciatique
 Splénectomie : Ablation chirurgicale de la rate
@@ -1486,7 +1536,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1504,7 +1554,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>tænia ou ténia
 téniase ou tæniasis
@@ -1519,7 +1571,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1537,7 +1589,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Ulcère gastroduodénal
 Ulcère de la jambe</t>
@@ -1550,7 +1604,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1568,7 +1622,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Vaccin
 Valve cardiaque
@@ -1589,7 +1645,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1607,7 +1663,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Wegener
 Maladie de Wilson : maladie génétique liée à une surcharge en cuivre.</t>
@@ -1620,7 +1678,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1638,7 +1696,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Xénogreffe
 Xeroderma pigmentosum</t>
@@ -1651,7 +1711,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1669,7 +1729,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Yersinia pestis Bacile de Yersin</t>
         </is>
@@ -1681,7 +1743,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_m%C3%A9decine</t>
+          <t>Glossaire_de_la_médecine</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1761,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">Zona
 Sur les autres projets Wikimedia :
